--- a/data/financials/roa.xlsx
+++ b/data/financials/roa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2162,8 +2162,12 @@
       <c r="S15" t="n">
         <v>1.105</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
@@ -2273,8 +2277,12 @@
       <c r="S16" t="n">
         <v>1.105</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
@@ -2388,8 +2396,12 @@
       <c r="S17" t="n">
         <v>1.105</v>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
@@ -2503,8 +2515,12 @@
       <c r="S18" t="n">
         <v>1.105</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
@@ -2618,8 +2634,12 @@
       <c r="S19" t="n">
         <v>1.105</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
@@ -2733,8 +2753,12 @@
       <c r="S20" t="n">
         <v>1.105</v>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
@@ -2848,8 +2872,12 @@
       <c r="S21" t="n">
         <v>1.18</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
@@ -2963,8 +2991,12 @@
       <c r="S22" t="n">
         <v>1.18</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
@@ -3078,8 +3110,12 @@
       <c r="S23" t="n">
         <v>1.18</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
@@ -3193,8 +3229,12 @@
       <c r="S24" t="n">
         <v>1.18</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
@@ -3308,8 +3348,12 @@
       <c r="S25" t="n">
         <v>1.18</v>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
@@ -3423,8 +3467,12 @@
       <c r="S26" t="n">
         <v>1.18</v>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
@@ -3497,7 +3545,9 @@
       <c r="D27" t="n">
         <v>2.01</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F27" t="n">
         <v>0.407</v>
       </c>
@@ -3536,8 +3586,12 @@
       <c r="S27" t="n">
         <v>1.18</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
         <v>0.74</v>
@@ -3591,7 +3645,9 @@
       <c r="AT27" t="n">
         <v>2.354</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
+      <c r="AU27" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
@@ -3614,7 +3670,9 @@
       <c r="D28" t="n">
         <v>2.01</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F28" t="n">
         <v>0.4</v>
       </c>
@@ -3633,7 +3691,9 @@
       <c r="K28" t="n">
         <v>4.63</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M28" t="n">
         <v>4.98</v>
       </c>
@@ -3653,8 +3713,12 @@
       <c r="S28" t="n">
         <v>1.18</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
         <v>0.74</v>
@@ -3712,7 +3776,9 @@
       <c r="AT28" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
+      <c r="AU28" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="n">
@@ -3735,7 +3801,9 @@
       <c r="D29" t="n">
         <v>2.01</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F29" t="n">
         <v>0.4</v>
       </c>
@@ -3754,7 +3822,9 @@
       <c r="K29" t="n">
         <v>4.63</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M29" t="n">
         <v>4.98</v>
       </c>
@@ -3774,8 +3844,12 @@
       <c r="S29" t="n">
         <v>1.18</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
         <v>0.74</v>
@@ -3833,7 +3907,9 @@
       <c r="AT29" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU29" t="inlineStr"/>
+      <c r="AU29" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="n">
@@ -3856,7 +3932,9 @@
       <c r="D30" t="n">
         <v>2.01</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F30" t="n">
         <v>0.4</v>
       </c>
@@ -3875,7 +3953,9 @@
       <c r="K30" t="n">
         <v>4.63</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M30" t="n">
         <v>4.98</v>
       </c>
@@ -3895,8 +3975,12 @@
       <c r="S30" t="n">
         <v>1.18</v>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
         <v>0.74</v>
@@ -3954,7 +4038,9 @@
       <c r="AT30" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
+      <c r="AU30" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="n">
@@ -3977,7 +4063,9 @@
       <c r="D31" t="n">
         <v>2.01</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F31" t="n">
         <v>0.4</v>
       </c>
@@ -3996,7 +4084,9 @@
       <c r="K31" t="n">
         <v>4.63</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M31" t="n">
         <v>4.98</v>
       </c>
@@ -4016,8 +4106,12 @@
       <c r="S31" t="n">
         <v>1.18</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
         <v>0.74</v>
@@ -4075,7 +4169,9 @@
       <c r="AT31" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="n">
@@ -4098,7 +4194,9 @@
       <c r="D32" t="n">
         <v>2.01</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F32" t="n">
         <v>0.4</v>
       </c>
@@ -4117,7 +4215,9 @@
       <c r="K32" t="n">
         <v>4.63</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M32" t="n">
         <v>4.98</v>
       </c>
@@ -4137,8 +4237,12 @@
       <c r="S32" t="n">
         <v>1.18</v>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
         <v>0.74</v>
@@ -4196,7 +4300,9 @@
       <c r="AT32" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
+      <c r="AU32" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="n">
@@ -4219,7 +4325,9 @@
       <c r="D33" t="n">
         <v>2.01</v>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F33" t="n">
         <v>0.4</v>
       </c>
@@ -4238,7 +4346,9 @@
       <c r="K33" t="n">
         <v>4.63</v>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M33" t="n">
         <v>4.98</v>
       </c>
@@ -4258,8 +4368,12 @@
       <c r="S33" t="n">
         <v>1.21</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
         <v>0.74</v>
@@ -4317,7 +4431,9 @@
       <c r="AT33" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
+      <c r="AU33" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="n">
@@ -4340,7 +4456,9 @@
       <c r="D34" t="n">
         <v>2.01</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F34" t="n">
         <v>0.4</v>
       </c>
@@ -4359,7 +4477,9 @@
       <c r="K34" t="n">
         <v>4.63</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M34" t="n">
         <v>4.98</v>
       </c>
@@ -4379,8 +4499,12 @@
       <c r="S34" t="n">
         <v>1.21</v>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
         <v>0.74</v>
@@ -4438,7 +4562,9 @@
       <c r="AT34" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
+      <c r="AU34" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="n">
@@ -4461,7 +4587,9 @@
       <c r="D35" t="n">
         <v>2.01</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F35" t="n">
         <v>0.4</v>
       </c>
@@ -4480,7 +4608,9 @@
       <c r="K35" t="n">
         <v>4.63</v>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M35" t="n">
         <v>4.98</v>
       </c>
@@ -4500,8 +4630,12 @@
       <c r="S35" t="n">
         <v>1.21</v>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
         <v>0.74</v>
@@ -4559,7 +4693,9 @@
       <c r="AT35" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
+      <c r="AU35" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="n">
@@ -4582,7 +4718,9 @@
       <c r="D36" t="n">
         <v>2.01</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F36" t="n">
         <v>0.4</v>
       </c>
@@ -4601,7 +4739,9 @@
       <c r="K36" t="n">
         <v>4.63</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M36" t="n">
         <v>4.98</v>
       </c>
@@ -4621,8 +4761,12 @@
       <c r="S36" t="n">
         <v>1.21</v>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
         <v>0.74</v>
@@ -4680,7 +4824,9 @@
       <c r="AT36" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
+      <c r="AU36" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="n">
@@ -4703,7 +4849,9 @@
       <c r="D37" t="n">
         <v>2.01</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>10.36</v>
+      </c>
       <c r="F37" t="n">
         <v>0.4</v>
       </c>
@@ -4722,7 +4870,9 @@
       <c r="K37" t="n">
         <v>4.63</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M37" t="n">
         <v>4.98</v>
       </c>
@@ -4742,8 +4892,12 @@
       <c r="S37" t="n">
         <v>1.21</v>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
         <v>0.74</v>
@@ -4801,7 +4955,9 @@
       <c r="AT37" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
+      <c r="AU37" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="n">
@@ -4845,7 +5001,9 @@
       <c r="K38" t="n">
         <v>4.63</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M38" t="n">
         <v>4.98</v>
       </c>
@@ -4865,8 +5023,12 @@
       <c r="S38" t="n">
         <v>1.21</v>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
         <v>0.74</v>
@@ -4924,7 +5086,9 @@
       <c r="AT38" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU38" t="inlineStr"/>
+      <c r="AU38" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="n">
@@ -4968,7 +5132,9 @@
       <c r="K39" t="n">
         <v>4.63</v>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>3.092</v>
+      </c>
       <c r="M39" t="n">
         <v>4.98</v>
       </c>
@@ -4982,16 +5148,22 @@
       <c r="Q39" t="n">
         <v>6.67</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>7.07</v>
+      </c>
       <c r="S39" t="n">
         <v>1.21</v>
       </c>
       <c r="T39" t="n">
         <v>1.02</v>
       </c>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X39" t="n">
         <v>5.55</v>
       </c>
@@ -5045,7 +5217,9 @@
       <c r="AT39" t="n">
         <v>2.71</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
+      <c r="AU39" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="n">
@@ -5105,16 +5279,22 @@
       <c r="Q40" t="n">
         <v>6.67</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>7.07</v>
+      </c>
       <c r="S40" t="n">
         <v>1.21</v>
       </c>
       <c r="T40" t="n">
         <v>1.02</v>
       </c>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X40" t="n">
         <v>2.42</v>
       </c>
@@ -5125,7 +5305,9 @@
         <v>3.72</v>
       </c>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AB40" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
         <v>4.39</v>
@@ -5168,7 +5350,9 @@
       <c r="AT40" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU40" t="inlineStr"/>
+      <c r="AU40" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="n">
@@ -5228,16 +5412,22 @@
       <c r="Q41" t="n">
         <v>6.67</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>7.07</v>
+      </c>
       <c r="S41" t="n">
         <v>1.21</v>
       </c>
       <c r="T41" t="n">
         <v>1.02</v>
       </c>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X41" t="n">
         <v>2.42</v>
       </c>
@@ -5248,7 +5438,9 @@
         <v>3.39</v>
       </c>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+      <c r="AB41" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
         <v>4.39</v>
@@ -5293,7 +5485,9 @@
       <c r="AT41" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU41" t="inlineStr"/>
+      <c r="AU41" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="n">
@@ -5353,16 +5547,22 @@
       <c r="Q42" t="n">
         <v>6.67</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>7.07</v>
+      </c>
       <c r="S42" t="n">
         <v>1.21</v>
       </c>
       <c r="T42" t="n">
         <v>1.02</v>
       </c>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X42" t="n">
         <v>2.42</v>
       </c>
@@ -5373,7 +5573,9 @@
         <v>3.39</v>
       </c>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
         <v>4.39</v>
@@ -5418,7 +5620,9 @@
       <c r="AT42" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU42" t="inlineStr"/>
+      <c r="AU42" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="n">
@@ -5478,16 +5682,22 @@
       <c r="Q43" t="n">
         <v>6.67</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>7.07</v>
+      </c>
       <c r="S43" t="n">
         <v>1.21</v>
       </c>
       <c r="T43" t="n">
         <v>1.02</v>
       </c>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X43" t="n">
         <v>2.42</v>
       </c>
@@ -5498,7 +5708,9 @@
         <v>3.39</v>
       </c>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
+      <c r="AB43" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
         <v>4.39</v>
@@ -5543,7 +5755,9 @@
       <c r="AT43" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU43" t="inlineStr"/>
+      <c r="AU43" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="n">
@@ -5603,14 +5817,22 @@
       <c r="Q44" t="n">
         <v>6.67</v>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T44" t="n">
         <v>1.02</v>
       </c>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X44" t="n">
         <v>2.42</v>
       </c>
@@ -5621,7 +5843,9 @@
         <v>3.39</v>
       </c>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
+      <c r="AB44" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
         <v>4.39</v>
@@ -5666,7 +5890,9 @@
       <c r="AT44" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU44" t="inlineStr"/>
+      <c r="AU44" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="n">
@@ -5726,14 +5952,22 @@
       <c r="Q45" t="n">
         <v>6.67</v>
       </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T45" t="n">
         <v>1.02</v>
       </c>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X45" t="n">
         <v>2.42</v>
       </c>
@@ -5744,7 +5978,9 @@
         <v>3.39</v>
       </c>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
         <v>4.39</v>
@@ -5789,7 +6025,9 @@
       <c r="AT45" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU45" t="inlineStr"/>
+      <c r="AU45" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="n">
@@ -5849,14 +6087,22 @@
       <c r="Q46" t="n">
         <v>6.67</v>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T46" t="n">
         <v>1.02</v>
       </c>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X46" t="n">
         <v>2.42</v>
       </c>
@@ -5867,7 +6113,9 @@
         <v>3.39</v>
       </c>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
+      <c r="AB46" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
         <v>4.39</v>
@@ -5912,7 +6160,9 @@
       <c r="AT46" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU46" t="inlineStr"/>
+      <c r="AU46" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="n">
@@ -5972,14 +6222,22 @@
       <c r="Q47" t="n">
         <v>6.67</v>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T47" t="n">
         <v>1.02</v>
       </c>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X47" t="n">
         <v>2.42</v>
       </c>
@@ -5990,7 +6248,9 @@
         <v>3.39</v>
       </c>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AB47" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="n">
         <v>4.39</v>
@@ -6035,7 +6295,9 @@
       <c r="AT47" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU47" t="inlineStr"/>
+      <c r="AU47" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="n">
@@ -6095,14 +6357,22 @@
       <c r="Q48" t="n">
         <v>6.67</v>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T48" t="n">
         <v>1.02</v>
       </c>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X48" t="n">
         <v>2.42</v>
       </c>
@@ -6113,7 +6383,9 @@
         <v>3.39</v>
       </c>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="n">
         <v>4.39</v>
@@ -6158,7 +6430,9 @@
       <c r="AT48" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU48" t="inlineStr"/>
+      <c r="AU48" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="n">
@@ -6218,14 +6492,22 @@
       <c r="Q49" t="n">
         <v>6.67</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T49" t="n">
         <v>1.02</v>
       </c>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X49" t="n">
         <v>2.42</v>
       </c>
@@ -6236,7 +6518,9 @@
         <v>3.39</v>
       </c>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
+      <c r="AB49" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
         <v>4.39</v>
@@ -6281,7 +6565,9 @@
       <c r="AT49" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU49" t="inlineStr"/>
+      <c r="AU49" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="n">
@@ -6341,14 +6627,22 @@
       <c r="Q50" t="n">
         <v>6.67</v>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T50" t="n">
         <v>1.02</v>
       </c>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>0.74</v>
+      </c>
       <c r="X50" t="n">
         <v>2.42</v>
       </c>
@@ -6359,7 +6653,9 @@
         <v>3.39</v>
       </c>
       <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
+      <c r="AB50" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
         <v>4.39</v>
@@ -6404,7 +6700,9 @@
       <c r="AT50" t="n">
         <v>1.61</v>
       </c>
-      <c r="AU50" t="inlineStr"/>
+      <c r="AU50" t="n">
+        <v>0.023</v>
+      </c>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="n">
@@ -6464,12 +6762,18 @@
       <c r="Q51" t="n">
         <v>6.67</v>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T51" t="n">
         <v>1.02</v>
       </c>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>4.26</v>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="n">
         <v>1</v>
@@ -6484,7 +6788,9 @@
         <v>3.39</v>
       </c>
       <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
+      <c r="AB51" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
         <v>3.823</v>
@@ -6594,7 +6900,9 @@
       <c r="R52" t="n">
         <v>6.16</v>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T52" t="n">
         <v>1.02</v>
       </c>
@@ -6611,9 +6919,13 @@
       <c r="Y52" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AB52" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
         <v>3.823</v>
@@ -6648,7 +6960,9 @@
       <c r="AP52" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ52" t="inlineStr"/>
+      <c r="AQ52" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR52" t="n">
         <v>5.759</v>
       </c>
@@ -6723,7 +7037,9 @@
       <c r="R53" t="n">
         <v>6.16</v>
       </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T53" t="n">
         <v>1.02</v>
       </c>
@@ -6740,9 +7056,13 @@
       <c r="Y53" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
+      <c r="AB53" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
         <v>3.823</v>
@@ -6779,7 +7099,9 @@
       <c r="AP53" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ53" t="inlineStr"/>
+      <c r="AQ53" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR53" t="n">
         <v>5.759</v>
       </c>
@@ -6854,7 +7176,9 @@
       <c r="R54" t="n">
         <v>6.16</v>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T54" t="n">
         <v>1.02</v>
       </c>
@@ -6871,9 +7195,13 @@
       <c r="Y54" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AB54" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
         <v>3.823</v>
@@ -6910,7 +7238,9 @@
       <c r="AP54" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ54" t="inlineStr"/>
+      <c r="AQ54" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR54" t="n">
         <v>5.759</v>
       </c>
@@ -6985,7 +7315,9 @@
       <c r="R55" t="n">
         <v>6.16</v>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>1.21</v>
+      </c>
       <c r="T55" t="n">
         <v>1.02</v>
       </c>
@@ -7002,9 +7334,13 @@
       <c r="Y55" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="AB55" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
         <v>3.823</v>
@@ -7041,7 +7377,9 @@
       <c r="AP55" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ55" t="inlineStr"/>
+      <c r="AQ55" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR55" t="n">
         <v>5.759</v>
       </c>
@@ -7135,9 +7473,13 @@
       <c r="Y56" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="AB56" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
         <v>3.823</v>
@@ -7174,7 +7516,9 @@
       <c r="AP56" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ56" t="inlineStr"/>
+      <c r="AQ56" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR56" t="n">
         <v>5.759</v>
       </c>
@@ -7268,9 +7612,13 @@
       <c r="Y57" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
         <v>3.823</v>
@@ -7307,7 +7655,9 @@
       <c r="AP57" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ57" t="inlineStr"/>
+      <c r="AQ57" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR57" t="n">
         <v>5.759</v>
       </c>
@@ -7401,9 +7751,13 @@
       <c r="Y58" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="AB58" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="n">
         <v>3.823</v>
@@ -7440,7 +7794,9 @@
       <c r="AP58" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ58" t="inlineStr"/>
+      <c r="AQ58" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR58" t="n">
         <v>5.759</v>
       </c>
@@ -7534,9 +7890,13 @@
       <c r="Y59" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
+      <c r="AB59" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="n">
         <v>3.823</v>
@@ -7573,7 +7933,9 @@
       <c r="AP59" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ59" t="inlineStr"/>
+      <c r="AQ59" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR59" t="n">
         <v>5.759</v>
       </c>
@@ -7667,9 +8029,13 @@
       <c r="Y60" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AB60" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="n">
         <v>3.823</v>
@@ -7706,7 +8072,9 @@
       <c r="AP60" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ60" t="inlineStr"/>
+      <c r="AQ60" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR60" t="n">
         <v>5.759</v>
       </c>
@@ -7800,9 +8168,13 @@
       <c r="Y61" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
+      <c r="AB61" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="n">
         <v>3.823</v>
@@ -7839,7 +8211,9 @@
       <c r="AP61" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ61" t="inlineStr"/>
+      <c r="AQ61" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR61" t="n">
         <v>5.759</v>
       </c>
@@ -7933,9 +8307,13 @@
       <c r="Y62" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
+      <c r="AB62" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="n">
         <v>3.823</v>
@@ -7972,7 +8350,9 @@
       <c r="AP62" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ62" t="inlineStr"/>
+      <c r="AQ62" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR62" t="n">
         <v>5.759</v>
       </c>
@@ -8001,7 +8381,9 @@
       <c r="B63" t="n">
         <v>2.83</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>0.52</v>
+      </c>
       <c r="D63" t="n">
         <v>-0.64</v>
       </c>
@@ -8011,7 +8393,9 @@
       <c r="F63" t="n">
         <v>0.52</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0.55</v>
+      </c>
       <c r="H63" t="n">
         <v>4.69</v>
       </c>
@@ -8061,10 +8445,16 @@
       <c r="X63" t="n">
         <v>3.98</v>
       </c>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Y63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.39</v>
+      </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
         <v>3.823</v>
@@ -8088,7 +8478,9 @@
       <c r="AK63" t="n">
         <v>2.31</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>2.649</v>
+      </c>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="n">
         <v>0.91</v>
@@ -8099,7 +8491,9 @@
       <c r="AP63" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ63" t="inlineStr"/>
+      <c r="AQ63" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR63" t="n">
         <v>5.759</v>
       </c>
@@ -8128,7 +8522,9 @@
       <c r="B64" t="n">
         <v>3.1</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>0.52</v>
+      </c>
       <c r="D64" t="n">
         <v>-0.64</v>
       </c>
@@ -8138,7 +8534,9 @@
       <c r="F64" t="n">
         <v>0.39</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0.55</v>
+      </c>
       <c r="H64" t="n">
         <v>4.68</v>
       </c>
@@ -8190,7 +8588,9 @@
       <c r="X64" t="n">
         <v>1.74</v>
       </c>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>1.12</v>
+      </c>
       <c r="Z64" t="n">
         <v>3.17</v>
       </c>
@@ -8201,14 +8601,18 @@
         <v>2.83</v>
       </c>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
+      <c r="AD64" t="n">
+        <v>3.823</v>
+      </c>
       <c r="AE64" t="n">
         <v>3.98</v>
       </c>
       <c r="AF64" t="n">
         <v>8.76</v>
       </c>
-      <c r="AG64" t="inlineStr"/>
+      <c r="AG64" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="AH64" t="n">
         <v>0.01</v>
       </c>
@@ -8218,17 +8622,25 @@
       <c r="AJ64" t="n">
         <v>0.89</v>
       </c>
-      <c r="AK64" t="inlineStr"/>
-      <c r="AL64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.649</v>
+      </c>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="n">
         <v>0.91</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
+      <c r="AO64" t="n">
+        <v>8.77</v>
+      </c>
       <c r="AP64" t="n">
         <v>3.46</v>
       </c>
-      <c r="AQ64" t="inlineStr"/>
+      <c r="AQ64" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR64" t="n">
         <v>-2.29</v>
       </c>
@@ -8257,7 +8669,9 @@
       <c r="B65" t="n">
         <v>3.1</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>0.52</v>
+      </c>
       <c r="D65" t="n">
         <v>-0.64</v>
       </c>
@@ -8267,7 +8681,9 @@
       <c r="F65" t="n">
         <v>0.39</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0.55</v>
+      </c>
       <c r="H65" t="n">
         <v>4.68</v>
       </c>
@@ -8319,7 +8735,9 @@
       <c r="X65" t="n">
         <v>1.74</v>
       </c>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="n">
+        <v>1.12</v>
+      </c>
       <c r="Z65" t="n">
         <v>3.17</v>
       </c>
@@ -8330,14 +8748,18 @@
         <v>2.83</v>
       </c>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
+      <c r="AD65" t="n">
+        <v>3.823</v>
+      </c>
       <c r="AE65" t="n">
         <v>3.98</v>
       </c>
       <c r="AF65" t="n">
         <v>8.76</v>
       </c>
-      <c r="AG65" t="inlineStr"/>
+      <c r="AG65" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="AH65" t="n">
         <v>0.01</v>
       </c>
@@ -8347,17 +8769,25 @@
       <c r="AJ65" t="n">
         <v>0.89</v>
       </c>
-      <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.649</v>
+      </c>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="n">
         <v>0.91</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
+      <c r="AO65" t="n">
+        <v>8.77</v>
+      </c>
       <c r="AP65" t="n">
         <v>2.38</v>
       </c>
-      <c r="AQ65" t="inlineStr"/>
+      <c r="AQ65" t="n">
+        <v>2.94</v>
+      </c>
       <c r="AR65" t="n">
         <v>-2.29</v>
       </c>
